--- a/data/top_labeled_topic_terms_round_2.xlsx
+++ b/data/top_labeled_topic_terms_round_2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">topic_label</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">beta</t>
   </si>
   <si>
-    <t xml:space="preserve">Supporting AI use for students with disabilities</t>
+    <t xml:space="preserve">Supporting students with disabilities using AI</t>
   </si>
   <si>
     <t xml:space="preserve">a46</t>
@@ -38,31 +38,31 @@
     <t xml:space="preserve">ai</t>
   </si>
   <si>
-    <t xml:space="preserve">students</t>
-  </si>
-  <si>
     <t xml:space="preserve">use</t>
   </si>
   <si>
-    <t xml:space="preserve">disabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teachers</t>
+    <t xml:space="preserve">student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q21</t>
   </si>
   <si>
     <t xml:space="preserve">support</t>
   </si>
   <si>
-    <t xml:space="preserve">q21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addressing students with disabilities using AI teaching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">addressing</t>
+    <t xml:space="preserve">concern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Addressing Student Learning with AI Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address</t>
   </si>
   <si>
     <t xml:space="preserve">teaching</t>
@@ -71,43 +71,67 @@
     <t xml:space="preserve">thank</t>
   </si>
   <si>
+    <t xml:space="preserve">comment</t>
+  </si>
+  <si>
     <t xml:space="preserve">explicit</t>
   </si>
   <si>
-    <t xml:space="preserve">comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Artificial Intelligence in Learning: Key Considerations</t>
+    <t xml:space="preserve">Designing AI-informed learning tools for students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">parent</t>
   </si>
   <si>
     <t xml:space="preserve">consideration</t>
   </si>
   <si>
+    <t xml:space="preserve">learn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sophistication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student-centered AI support for learning exploration</t>
+  </si>
+  <si>
     <t xml:space="preserve">learning</t>
   </si>
   <si>
-    <t xml:space="preserve">important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sophistication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tenants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting teachers in planning inclusive lessons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">related</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sld</t>
+    <t xml:space="preserve">currently</t>
+  </si>
+  <si>
+    <t xml:space="preserve">work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">explore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supportive instruction for students with learning differences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
   </si>
   <si>
     <t xml:space="preserve">like</t>
@@ -119,106 +143,55 @@
     <t xml:space="preserve">lesson</t>
   </si>
   <si>
-    <t xml:space="preserve">planning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">previously</t>
-  </si>
-  <si>
-    <t xml:space="preserve">see</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">supporting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting students with learning differences using AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">parents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concerns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">one</t>
+    <t xml:space="preserve">Ethical considerations in AI education rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copyright</t>
+  </si>
+  <si>
+    <t xml:space="preserve">creative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can</t>
+  </si>
+  <si>
+    <t xml:space="preserve">within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supportive AI for explicit student feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting students with explicit AI teaching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting AI-driven special education for students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ld</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need</t>
   </si>
   <si>
     <t xml:space="preserve">drive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ways</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting AI copyright issues in schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">can</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concern</t>
-  </si>
-  <si>
-    <t xml:space="preserve">within</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supportive AI tools for inclusive teaching practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addressing explicit AI use in student support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inclusive AI for Special Education Teacher Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">special</t>
-  </si>
-  <si>
-    <t xml:space="preserve">access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ld</t>
-  </si>
-  <si>
-    <t xml:space="preserve">development</t>
   </si>
 </sst>
 </file>
@@ -575,7 +548,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.666347337144916</v>
+        <v>0.666297892188167</v>
       </c>
     </row>
     <row r="3">
@@ -589,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.333177831764491</v>
+        <v>0.333153436588025</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +576,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.000193619930110954</v>
+        <v>0.000197933986664828</v>
       </c>
     </row>
     <row r="5">
@@ -617,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000170941101179544</v>
+        <v>0.000140771315984291</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0000415618347044776</v>
+        <v>0.0001315958064498</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0000227197539630146</v>
+        <v>0.0000355850891028391</v>
       </c>
     </row>
     <row r="8">
@@ -659,7 +632,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000010684776341449</v>
+        <v>0.00000957140407325323</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +646,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0000100026320182163</v>
+        <v>0.00000598318652055435</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00000866040408282939</v>
+        <v>0.00000458958609955169</v>
       </c>
     </row>
     <row r="11">
@@ -701,7 +674,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00000168536013225988</v>
+        <v>0.00000333707050630774</v>
       </c>
     </row>
     <row r="12">
@@ -712,10 +685,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0.666347341040043</v>
+        <v>0.666297892422673</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +702,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.333177827866548</v>
+        <v>0.333153436353323</v>
       </c>
     </row>
     <row r="14">
@@ -743,7 +716,7 @@
         <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>0.000193619931258812</v>
+        <v>0.000197933986735269</v>
       </c>
     </row>
     <row r="15">
@@ -757,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="D15" t="n">
-        <v>0.000170941102192699</v>
+        <v>0.000140771316034386</v>
       </c>
     </row>
     <row r="16">
@@ -771,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0000415618349508658</v>
+        <v>0.00013159580649663</v>
       </c>
     </row>
     <row r="17">
@@ -785,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0000227197540976231</v>
+        <v>0.0000355850891155013</v>
       </c>
     </row>
     <row r="18">
@@ -796,10 +769,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0000106847764047835</v>
+        <v>0.00000957140407674323</v>
       </c>
     </row>
     <row r="19">
@@ -813,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0000100026320774776</v>
+        <v>0.00000598318652268353</v>
       </c>
     </row>
     <row r="20">
@@ -824,10 +797,10 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00000866040413580761</v>
+        <v>0.00000458958610118482</v>
       </c>
     </row>
     <row r="21">
@@ -841,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0000016853601422502</v>
+        <v>0.00000333707050749514</v>
       </c>
     </row>
     <row r="22">
@@ -855,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>0.345699250137052</v>
+        <v>0.35589535601287</v>
       </c>
     </row>
     <row r="23">
@@ -869,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>0.145320925571964</v>
+        <v>0.139063181327819</v>
       </c>
     </row>
     <row r="24">
@@ -883,7 +856,7 @@
         <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>0.144887555679244</v>
+        <v>0.134058805922373</v>
       </c>
     </row>
     <row r="25">
@@ -897,7 +870,7 @@
         <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>0.133466013224182</v>
+        <v>0.133581621131859</v>
       </c>
     </row>
     <row r="26">
@@ -911,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="D26" t="n">
-        <v>0.115242275517906</v>
+        <v>0.118642056979528</v>
       </c>
     </row>
     <row r="27">
@@ -925,7 +898,7 @@
         <v>18</v>
       </c>
       <c r="D27" t="n">
-        <v>0.115242275517906</v>
+        <v>0.118642056979528</v>
       </c>
     </row>
     <row r="28">
@@ -939,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="n">
-        <v>0.000104153107016938</v>
+        <v>0.0000833003814712479</v>
       </c>
     </row>
     <row r="29">
@@ -953,7 +926,7 @@
         <v>19</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0000137882084977106</v>
+        <v>0.0000154074628956565</v>
       </c>
     </row>
     <row r="30">
@@ -967,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0000137882084977105</v>
+        <v>0.0000154074628956565</v>
       </c>
     </row>
     <row r="31">
@@ -978,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>0.00000222820457651178</v>
+        <v>0.000000639374468324643</v>
       </c>
     </row>
     <row r="32">
@@ -995,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0708847443822091</v>
+        <v>0.0636898661604776</v>
       </c>
     </row>
     <row r="33">
@@ -1006,10 +979,10 @@
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0431734268989364</v>
+        <v>0.0439514880174053</v>
       </c>
     </row>
     <row r="34">
@@ -1020,10 +993,10 @@
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0428948232621105</v>
+        <v>0.0319094478871695</v>
       </c>
     </row>
     <row r="35">
@@ -1034,10 +1007,10 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0417620952130206</v>
+        <v>0.0284030110656436</v>
       </c>
     </row>
     <row r="36">
@@ -1048,10 +1021,10 @@
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0288849475572738</v>
+        <v>0.0284030075015407</v>
       </c>
     </row>
     <row r="37">
@@ -1062,10 +1035,10 @@
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D37" t="n">
-        <v>0.028782284703477</v>
+        <v>0.0284030054311381</v>
       </c>
     </row>
     <row r="38">
@@ -1076,10 +1049,10 @@
         <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D38" t="n">
-        <v>0.028782284703477</v>
+        <v>0.0280359927742233</v>
       </c>
     </row>
     <row r="39">
@@ -1090,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D39" t="n">
-        <v>0.028782284703477</v>
+        <v>0.0189824332217472</v>
       </c>
     </row>
     <row r="40">
@@ -1104,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>0.028782284703477</v>
+        <v>0.0189353495153807</v>
       </c>
     </row>
     <row r="41">
@@ -1118,962 +1091,892 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
-        <v>0.025852639493474</v>
+        <v>0.0189353495153807</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>21</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
       <c r="D42" t="n">
-        <v>0.124312037243002</v>
+        <v>0.0189353495153807</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>0.116478288923876</v>
+        <v>0.0189353495153807</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0609290893062963</v>
+        <v>0.0189353495153807</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B45" t="n">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0598707212764285</v>
+        <v>0.159168343992365</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B46" t="n">
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0597978210871661</v>
+        <v>0.128030601194815</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B47" t="n">
         <v>5</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D47" t="n">
-        <v>0.059475172941681</v>
+        <v>0.117257887203838</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B48" t="n">
         <v>5</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0578344384159</v>
+        <v>0.0794525160977625</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B49" t="n">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0576561173744897</v>
+        <v>0.0743531624490469</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B50" t="n">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D50" t="n">
-        <v>0.057656117374465</v>
+        <v>0.0639374737785107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B51" t="n">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D51" t="n">
-        <v>0.057656117374465</v>
+        <v>0.0636394249770152</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B52" t="n">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D52" t="n">
-        <v>0.057656117374465</v>
+        <v>0.0631597136096541</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B53" t="n">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" t="n">
-        <v>0.057656117374465</v>
+        <v>0.0630952433122364</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B54" t="n">
         <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D54" t="n">
-        <v>0.057656117374465</v>
+        <v>0.0625017568769364</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>0.057656117374465</v>
+        <v>0.120671135677486</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D56" t="n">
-        <v>0.057656117374465</v>
+        <v>0.118962310880657</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B57" t="n">
         <v>6</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0581532661618933</v>
+        <v>0.117182292773562</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B58" t="n">
         <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0576424909048733</v>
+        <v>0.0593745535507628</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B59" t="n">
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0571141410543633</v>
+        <v>0.0592340329046921</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B60" t="n">
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0385774820515081</v>
+        <v>0.0590517444077688</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B61" t="n">
         <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0377650903299919</v>
+        <v>0.0587794580684081</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B62" t="n">
         <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0198057679047735</v>
+        <v>0.0584208180216221</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B63" t="n">
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D63" t="n">
-        <v>0.019354332810082</v>
+        <v>0.0583430151289942</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B64" t="n">
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0192971106324743</v>
+        <v>0.0579948438373891</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B65" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0192953845508219</v>
+        <v>0.0858396828071335</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B66" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0192903876766644</v>
+        <v>0.0573140234458243</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B67" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0192903876766644</v>
+        <v>0.0570848184140395</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B68" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0192903876766644</v>
+        <v>0.0570848184140395</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B69" t="n">
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0858826699701321</v>
+        <v>0.0287202677524627</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B70" t="n">
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0571579504877323</v>
+        <v>0.028681193770115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B71" t="n">
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0570555833552868</v>
+        <v>0.0286570117454622</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B72" t="n">
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0570555833552868</v>
+        <v>0.0286168912358049</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B73" t="n">
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0290844043146103</v>
+        <v>0.0285969277520075</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B74" t="n">
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0286735639349646</v>
+        <v>0.0285969277520075</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0286735639349646</v>
+        <v>0.35589535601287</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B76" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0286055499061384</v>
+        <v>0.139063181327819</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0285811545930116</v>
+        <v>0.134058805922374</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B78" t="n">
+        <v>8</v>
+      </c>
+      <c r="C78" t="s">
         <v>7</v>
       </c>
-      <c r="C78" t="s">
-        <v>58</v>
-      </c>
       <c r="D78" t="n">
-        <v>0.0285811545930116</v>
+        <v>0.133581621131859</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B79" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0285811545930116</v>
+        <v>0.118642056979528</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B80" t="n">
         <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D80" t="n">
-        <v>0.345699250137051</v>
+        <v>0.118642056979528</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B81" t="n">
         <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D81" t="n">
-        <v>0.145320925571964</v>
+        <v>0.0000833003814712474</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B82" t="n">
         <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>0.144887555679244</v>
+        <v>0.0000154074628956566</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B83" t="n">
         <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D83" t="n">
-        <v>0.133466013224182</v>
+        <v>0.0000154074628956565</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B84" t="n">
         <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D84" t="n">
-        <v>0.115242275517907</v>
+        <v>0.000000639374468324639</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115242275517907</v>
+        <v>0.35589535601287</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B86" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
         <v>8</v>
       </c>
-      <c r="C86" t="s">
-        <v>10</v>
-      </c>
       <c r="D86" t="n">
-        <v>0.000104153107016936</v>
+        <v>0.139063181327819</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B87" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0000137882084977107</v>
+        <v>0.134058805922373</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B88" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0000137882084977107</v>
+        <v>0.133581621131859</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D89" t="n">
-        <v>0.00000222820457651175</v>
+        <v>0.118642056979529</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B90" t="n">
         <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" t="n">
-        <v>0.345699250137052</v>
+        <v>0.118642056979529</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B91" t="n">
         <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D91" t="n">
-        <v>0.145320925571964</v>
+        <v>0.0000833003814712461</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B92" t="n">
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D92" t="n">
-        <v>0.144887555679243</v>
+        <v>0.0000154074628956566</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B93" t="n">
         <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D93" t="n">
-        <v>0.133466013224182</v>
+        <v>0.0000154074628956566</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B94" t="n">
         <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>0.115242275517906</v>
+        <v>0.000000639374468324632</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B95" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>0.115242275517906</v>
+        <v>0.0523390104710533</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B96" t="n">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
         <v>9</v>
       </c>
-      <c r="C96" t="s">
-        <v>10</v>
-      </c>
       <c r="D96" t="n">
-        <v>0.000104153107016938</v>
+        <v>0.052303915719764</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0000137882084977106</v>
+        <v>0.0437847070849619</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B98" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C98" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0000137882084977105</v>
+        <v>0.0263924006120162</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B99" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C99" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D99" t="n">
-        <v>0.00000222820457651179</v>
+        <v>0.0263924006120162</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B100" t="n">
         <v>10</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0523254513649284</v>
+        <v>0.0263923866968154</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B101" t="n">
         <v>10</v>
       </c>
       <c r="C101" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0440082477262497</v>
+        <v>0.0263923866968154</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B102" t="n">
         <v>10</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0435545455661953</v>
+        <v>0.0263879475851575</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B103" t="n">
         <v>10</v>
       </c>
       <c r="C103" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="D103" t="n">
-        <v>0.0264280594739462</v>
+        <v>0.0254263586470062</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B104" t="n">
         <v>10</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0264280594739462</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>62</v>
-      </c>
-      <c r="B105" t="n">
-        <v>10</v>
-      </c>
-      <c r="C105" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.0264277106321265</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>62</v>
-      </c>
-      <c r="B106" t="n">
-        <v>10</v>
-      </c>
-      <c r="C106" t="s">
-        <v>66</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.0264277106321265</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>62</v>
-      </c>
-      <c r="B107" t="n">
-        <v>10</v>
-      </c>
-      <c r="C107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.0264277106321265</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B108" t="n">
-        <v>10</v>
-      </c>
-      <c r="C108" t="s">
-        <v>14</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.0176539994785186</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>62</v>
-      </c>
-      <c r="B109" t="n">
-        <v>10</v>
-      </c>
-      <c r="C109" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.0176187185873985</v>
+        <v>0.0176226112170892</v>
       </c>
     </row>
   </sheetData>
